--- a/results/mp/tinybert/toy-spam/confidence/210/stop-words-masking-0.2/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/210/stop-words-masking-0.2/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="95">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,90 +46,81 @@
     <t>disappointing</t>
   </si>
   <si>
-    <t>ripped</t>
-  </si>
-  <si>
     <t>thin</t>
   </si>
   <si>
+    <t>however</t>
+  </si>
+  <si>
+    <t>disappointed</t>
+  </si>
+  <si>
+    <t>junk</t>
+  </si>
+  <si>
+    <t>returned</t>
+  </si>
+  <si>
     <t>poor</t>
   </si>
   <si>
-    <t>however</t>
-  </si>
-  <si>
-    <t>disappointed</t>
-  </si>
-  <si>
     <t>waste</t>
   </si>
   <si>
+    <t>smaller</t>
+  </si>
+  <si>
     <t>broke</t>
   </si>
   <si>
-    <t>junk</t>
-  </si>
-  <si>
-    <t>returned</t>
-  </si>
-  <si>
-    <t>smaller</t>
+    <t>water</t>
+  </si>
+  <si>
+    <t>small</t>
+  </si>
+  <si>
+    <t>missing</t>
   </si>
   <si>
     <t>instead</t>
   </si>
   <si>
-    <t>missing</t>
-  </si>
-  <si>
-    <t>water</t>
-  </si>
-  <si>
-    <t>small</t>
+    <t>plastic</t>
   </si>
   <si>
     <t>guess</t>
   </si>
   <si>
+    <t>okay</t>
+  </si>
+  <si>
+    <t>fell</t>
+  </si>
+  <si>
+    <t>pay</t>
+  </si>
+  <si>
     <t>paint</t>
   </si>
   <si>
-    <t>short</t>
-  </si>
-  <si>
-    <t>okay</t>
-  </si>
-  <si>
-    <t>fell</t>
-  </si>
-  <si>
-    <t>plastic</t>
-  </si>
-  <si>
-    <t>less</t>
+    <t>broken</t>
   </si>
   <si>
     <t>ok</t>
   </si>
   <si>
+    <t>cheap</t>
+  </si>
+  <si>
+    <t>di</t>
+  </si>
+  <si>
     <t>apart</t>
   </si>
   <si>
-    <t>broken</t>
-  </si>
-  <si>
-    <t>maybe</t>
-  </si>
-  <si>
-    <t>pay</t>
-  </si>
-  <si>
     <t>difficult</t>
   </si>
   <si>
-    <t>cheap</t>
-  </si>
-  <si>
     <t>bad</t>
   </si>
   <si>
@@ -142,55 +133,64 @@
     <t>though</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>fit</t>
+  </si>
+  <si>
     <t>size</t>
   </si>
   <si>
     <t>hard</t>
   </si>
   <si>
+    <t>would</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>back</t>
+  </si>
+  <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>could</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
     <t>money</t>
   </si>
   <si>
-    <t>would</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>item</t>
-  </si>
-  <si>
     <t>better</t>
   </si>
   <si>
-    <t>could</t>
-  </si>
-  <si>
-    <t>back</t>
-  </si>
-  <si>
-    <t>work</t>
-  </si>
-  <si>
     <t>product</t>
   </si>
   <si>
+    <t>used</t>
+  </si>
+  <si>
+    <t>pieces</t>
+  </si>
+  <si>
     <t>2</t>
   </si>
   <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>put</t>
-  </si>
-  <si>
-    <t>used</t>
+    <t>5</t>
   </si>
   <si>
     <t>3</t>
   </si>
   <si>
-    <t>box</t>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>little</t>
   </si>
   <si>
     <t>use</t>
@@ -199,39 +199,36 @@
     <t>even</t>
   </si>
   <si>
-    <t>little</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
-    <t>buy</t>
+    <t>much</t>
+  </si>
+  <si>
+    <t>toy</t>
   </si>
   <si>
     <t>one</t>
   </si>
   <si>
-    <t>toy</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
     <t>wonderful</t>
   </si>
   <si>
+    <t>awesome</t>
+  </si>
+  <si>
     <t>amazing</t>
   </si>
   <si>
-    <t>awesome</t>
+    <t>excellent</t>
   </si>
   <si>
     <t>favorite</t>
   </si>
   <si>
-    <t>excellent</t>
-  </si>
-  <si>
     <t>classic</t>
   </si>
   <si>
@@ -250,27 +247,27 @@
     <t>loved</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>perfect</t>
+  </si>
+  <si>
     <t>friends</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>perfect</t>
-  </si>
-  <si>
     <t>happy</t>
   </si>
   <si>
+    <t>christmas</t>
+  </si>
+  <si>
+    <t>enjoy</t>
+  </si>
+  <si>
     <t>learn</t>
   </si>
   <si>
-    <t>enjoy</t>
-  </si>
-  <si>
-    <t>christmas</t>
-  </si>
-  <si>
     <t>enjoyed</t>
   </si>
   <si>
@@ -283,13 +280,22 @@
     <t>easy</t>
   </si>
   <si>
+    <t>game</t>
+  </si>
+  <si>
     <t>family</t>
   </si>
   <si>
-    <t>game</t>
+    <t>cute</t>
+  </si>
+  <si>
+    <t>playing</t>
   </si>
   <si>
     <t>play</t>
+  </si>
+  <si>
+    <t>year</t>
   </si>
   <si>
     <t>positive</t>
@@ -650,7 +656,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q60"/>
+  <dimension ref="A1:Q59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -658,10 +664,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -719,13 +725,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9782608695652174</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="C3">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D3">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -737,10 +743,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K3">
         <v>0.8928571428571429</v>
@@ -769,13 +775,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8636363636363636</v>
+        <v>0.8863636363636364</v>
       </c>
       <c r="C4">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D4">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -787,19 +793,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K4">
-        <v>0.8888888888888888</v>
+        <v>0.8769230769230769</v>
       </c>
       <c r="L4">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="M4">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -811,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -819,49 +825,49 @@
         <v>10</v>
       </c>
       <c r="B5">
+        <v>0.8275862068965517</v>
+      </c>
+      <c r="C5">
+        <v>24</v>
+      </c>
+      <c r="D5">
+        <v>24</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>5</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K5">
         <v>0.8518518518518519</v>
       </c>
-      <c r="C5">
+      <c r="L5">
         <v>23</v>
       </c>
-      <c r="D5">
+      <c r="M5">
         <v>23</v>
       </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5">
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q5">
         <v>4</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="K5">
-        <v>0.8615384615384616</v>
-      </c>
-      <c r="L5">
-        <v>56</v>
-      </c>
-      <c r="M5">
-        <v>56</v>
-      </c>
-      <c r="N5">
-        <v>1</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -869,13 +875,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7931034482758621</v>
+        <v>0.71875</v>
       </c>
       <c r="C6">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="D6">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -887,19 +893,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K6">
-        <v>0.8172043010752689</v>
+        <v>0.796875</v>
       </c>
       <c r="L6">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="M6">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -911,7 +917,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -919,13 +925,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7746478873239436</v>
+        <v>0.7096774193548387</v>
       </c>
       <c r="C7">
-        <v>55</v>
+        <v>132</v>
       </c>
       <c r="D7">
-        <v>55</v>
+        <v>132</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -937,19 +943,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K7">
-        <v>0.734375</v>
+        <v>0.7956989247311828</v>
       </c>
       <c r="L7">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="M7">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -961,7 +967,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -969,13 +975,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.71875</v>
+        <v>0.7090909090909091</v>
       </c>
       <c r="C8">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D8">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -987,19 +993,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K8">
-        <v>0.6792452830188679</v>
+        <v>0.6981132075471698</v>
       </c>
       <c r="L8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1011,7 +1017,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1019,13 +1025,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7096774193548387</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C9">
-        <v>132</v>
+        <v>26</v>
       </c>
       <c r="D9">
-        <v>132</v>
+        <v>26</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1037,19 +1043,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K9">
-        <v>0.5710186513629842</v>
+        <v>0.5868005738880918</v>
       </c>
       <c r="L9">
-        <v>398</v>
+        <v>409</v>
       </c>
       <c r="M9">
-        <v>398</v>
+        <v>409</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1061,7 +1067,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>299</v>
+        <v>288</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1069,13 +1075,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.668918918918919</v>
+        <v>0.676056338028169</v>
       </c>
       <c r="C10">
-        <v>99</v>
+        <v>48</v>
       </c>
       <c r="D10">
-        <v>99</v>
+        <v>48</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1087,19 +1093,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K10">
-        <v>0.5652173913043478</v>
+        <v>0.5362318840579711</v>
       </c>
       <c r="L10">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M10">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1111,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1119,13 +1125,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6601941747572816</v>
+        <v>0.6756756756756757</v>
       </c>
       <c r="C11">
-        <v>136</v>
+        <v>100</v>
       </c>
       <c r="D11">
-        <v>136</v>
+        <v>100</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1137,19 +1143,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K11">
-        <v>0.5311203319502075</v>
+        <v>0.516597510373444</v>
       </c>
       <c r="L11">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="M11">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1161,7 +1167,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>226</v>
+        <v>233</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1169,13 +1175,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6363636363636364</v>
+        <v>0.5966386554621849</v>
       </c>
       <c r="C12">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="D12">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1187,19 +1193,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K12">
-        <v>0.4786885245901639</v>
+        <v>0.4729508196721312</v>
       </c>
       <c r="L12">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="M12">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1211,7 +1217,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>636</v>
+        <v>643</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1219,13 +1225,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6052631578947368</v>
+        <v>0.5825242718446602</v>
       </c>
       <c r="C13">
-        <v>23</v>
+        <v>120</v>
       </c>
       <c r="D13">
-        <v>23</v>
+        <v>120</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1237,19 +1243,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>15</v>
+        <v>86</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K13">
-        <v>0.3700305810397553</v>
+        <v>0.3914373088685015</v>
       </c>
       <c r="L13">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="M13">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1261,7 +1267,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>206</v>
+        <v>199</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1269,13 +1275,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5630252100840336</v>
+        <v>0.5476190476190477</v>
       </c>
       <c r="C14">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="D14">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1287,19 +1293,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K14">
-        <v>0.3650793650793651</v>
+        <v>0.3666666666666666</v>
       </c>
       <c r="L14">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="M14">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1311,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>120</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1319,13 +1325,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5625</v>
+        <v>0.5246376811594203</v>
       </c>
       <c r="C15">
-        <v>27</v>
+        <v>181</v>
       </c>
       <c r="D15">
-        <v>27</v>
+        <v>181</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1337,19 +1343,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>21</v>
+        <v>164</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K15">
-        <v>0.3583333333333333</v>
+        <v>0.3493975903614458</v>
       </c>
       <c r="L15">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="M15">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1361,7 +1367,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>77</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1369,13 +1375,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5555555555555556</v>
+        <v>0.5111111111111111</v>
       </c>
       <c r="C16">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D16">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1387,19 +1393,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K16">
-        <v>0.3373493975903614</v>
+        <v>0.328042328042328</v>
       </c>
       <c r="L16">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="M16">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1411,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>110</v>
+        <v>127</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1419,13 +1425,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5476190476190477</v>
+        <v>0.5</v>
       </c>
       <c r="C17">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D17">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1437,19 +1443,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K17">
-        <v>0.2587412587412588</v>
+        <v>0.2377622377622378</v>
       </c>
       <c r="L17">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="M17">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1461,7 +1467,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1469,13 +1475,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5130434782608696</v>
+        <v>0.4566929133858268</v>
       </c>
       <c r="C18">
-        <v>177</v>
+        <v>58</v>
       </c>
       <c r="D18">
-        <v>177</v>
+        <v>58</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1487,19 +1493,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>168</v>
+        <v>69</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K18">
-        <v>0.25</v>
+        <v>0.2208835341365462</v>
       </c>
       <c r="L18">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="M18">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1511,7 +1517,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>96</v>
+        <v>194</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1519,13 +1525,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="C19">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D19">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1537,19 +1543,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K19">
-        <v>0.2258064516129032</v>
+        <v>0.2204301075268817</v>
       </c>
       <c r="L19">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M19">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1561,7 +1567,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1569,13 +1575,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.492063492063492</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="C20">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D20">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1587,19 +1593,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K20">
-        <v>0.2088353413654618</v>
+        <v>0.21875</v>
       </c>
       <c r="L20">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="M20">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1611,7 +1617,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>197</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1619,13 +1625,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.4693877551020408</v>
+        <v>0.4363636363636363</v>
       </c>
       <c r="C21">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D21">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1637,19 +1643,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K21">
-        <v>0.2063492063492063</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="L21">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M21">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1661,7 +1667,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1669,13 +1675,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.462962962962963</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C22">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D22">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1687,19 +1693,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K22">
-        <v>0.2</v>
+        <v>0.192</v>
       </c>
       <c r="L22">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M22">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1711,7 +1717,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1719,49 +1725,49 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.4444444444444444</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C23">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D23">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E23">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="G23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K23">
-        <v>0.1700262927256792</v>
+        <v>0.1745614035087719</v>
       </c>
       <c r="L23">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="M23">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="N23">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q23">
-        <v>947</v>
+        <v>941</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1769,13 +1775,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.4409448818897638</v>
+        <v>0.4216867469879518</v>
       </c>
       <c r="C24">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="D24">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1787,28 +1793,28 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K24">
-        <v>0.1149732620320856</v>
+        <v>0.1126005361930295</v>
       </c>
       <c r="L24">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M24">
         <v>43</v>
       </c>
       <c r="N24">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q24">
         <v>331</v>
@@ -1819,13 +1825,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.4333333333333333</v>
+        <v>0.3984375</v>
       </c>
       <c r="C25">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="D25">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1837,31 +1843,31 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K25">
-        <v>0.1030640668523677</v>
+        <v>0.09480519480519481</v>
       </c>
       <c r="L25">
-        <v>37</v>
+        <v>146</v>
       </c>
       <c r="M25">
-        <v>37</v>
+        <v>147</v>
       </c>
       <c r="N25">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q25">
-        <v>322</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1869,13 +1875,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.421875</v>
+        <v>0.3981042654028436</v>
       </c>
       <c r="C26">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="D26">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1887,31 +1893,31 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>74</v>
+        <v>127</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K26">
-        <v>0.0935672514619883</v>
+        <v>0.0947075208913649</v>
       </c>
       <c r="L26">
-        <v>144</v>
+        <v>34</v>
       </c>
       <c r="M26">
-        <v>146</v>
+        <v>34</v>
       </c>
       <c r="N26">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O26">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q26">
-        <v>1395</v>
+        <v>325</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1919,49 +1925,49 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.4210526315789473</v>
+        <v>0.375</v>
       </c>
       <c r="C27">
+        <v>24</v>
+      </c>
+      <c r="D27">
+        <v>24</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27" t="b">
+        <v>0</v>
+      </c>
+      <c r="H27">
         <v>40</v>
       </c>
-      <c r="D27">
-        <v>40</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27" t="b">
-        <v>0</v>
-      </c>
-      <c r="H27">
-        <v>55</v>
-      </c>
       <c r="J27" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K27">
-        <v>0.05740987983978638</v>
+        <v>0.08560311284046693</v>
       </c>
       <c r="L27">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="M27">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="N27">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O27">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q27">
-        <v>706</v>
+        <v>235</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1969,13 +1975,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.3975903614457831</v>
+        <v>0.3684210526315789</v>
       </c>
       <c r="C28">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D28">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1987,7 +1993,31 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>50</v>
+        <v>60</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K28">
+        <v>0.07407407407407407</v>
+      </c>
+      <c r="L28">
+        <v>24</v>
+      </c>
+      <c r="M28">
+        <v>24</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>300</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1995,13 +2025,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.3928571428571428</v>
+        <v>0.3483146067415731</v>
       </c>
       <c r="C29">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="D29">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2013,7 +2043,31 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>34</v>
+        <v>58</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K29">
+        <v>0.05087014725568943</v>
+      </c>
+      <c r="L29">
+        <v>38</v>
+      </c>
+      <c r="M29">
+        <v>43</v>
+      </c>
+      <c r="N29">
+        <v>0.88</v>
+      </c>
+      <c r="O29">
+        <v>0.12</v>
+      </c>
+      <c r="P29" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q29">
+        <v>709</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2021,25 +2075,49 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.3650793650793651</v>
+        <v>0.3283582089552239</v>
       </c>
       <c r="C30">
+        <v>22</v>
+      </c>
+      <c r="D30">
+        <v>22</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30" t="b">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>45</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K30">
+        <v>0.04627766599597585</v>
+      </c>
+      <c r="L30">
         <v>23</v>
       </c>
-      <c r="D30">
-        <v>23</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H30">
-        <v>40</v>
+      <c r="M30">
+        <v>26</v>
+      </c>
+      <c r="N30">
+        <v>0.88</v>
+      </c>
+      <c r="O30">
+        <v>0.12</v>
+      </c>
+      <c r="P30" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q30">
+        <v>474</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2047,13 +2125,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.3595505617977528</v>
+        <v>0.3168316831683168</v>
       </c>
       <c r="C31">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="D31">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2065,7 +2143,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>57</v>
+        <v>138</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2073,13 +2151,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.3554502369668247</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="C32">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="D32">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2091,7 +2169,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>136</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2099,13 +2177,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.3432835820895522</v>
+        <v>0.2393162393162393</v>
       </c>
       <c r="C33">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D33">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2117,7 +2195,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>44</v>
+        <v>89</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2125,13 +2203,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.2920792079207921</v>
+        <v>0.2372881355932203</v>
       </c>
       <c r="C34">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="D34">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2143,7 +2221,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>143</v>
+        <v>90</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2151,13 +2229,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.2653061224489796</v>
+        <v>0.2371134020618557</v>
       </c>
       <c r="C35">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D35">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2169,7 +2247,7 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2177,13 +2255,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.2564102564102564</v>
+        <v>0.2268041237113402</v>
       </c>
       <c r="C36">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="D36">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2195,7 +2273,7 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>87</v>
+        <v>150</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2203,13 +2281,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.2319587628865979</v>
+        <v>0.205</v>
       </c>
       <c r="C37">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D37">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2221,7 +2299,7 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>149</v>
+        <v>159</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2229,25 +2307,25 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.2</v>
+        <v>0.2020802377414562</v>
       </c>
       <c r="C38">
-        <v>40</v>
+        <v>136</v>
       </c>
       <c r="D38">
-        <v>40</v>
+        <v>137</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F38">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H38">
-        <v>160</v>
+        <v>537</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2255,13 +2333,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.1962025316455696</v>
+        <v>0.2011494252873563</v>
       </c>
       <c r="C39">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="D39">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2273,7 +2351,7 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>254</v>
+        <v>278</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2281,25 +2359,25 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.1961367013372957</v>
+        <v>0.2</v>
       </c>
       <c r="C40">
-        <v>132</v>
+        <v>28</v>
       </c>
       <c r="D40">
-        <v>133</v>
+        <v>28</v>
       </c>
       <c r="E40">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F40">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H40">
-        <v>541</v>
+        <v>112</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2307,13 +2385,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.1949152542372881</v>
+        <v>0.1992753623188406</v>
       </c>
       <c r="C41">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="D41">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2325,7 +2403,7 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>95</v>
+        <v>221</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2333,13 +2411,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.1884057971014493</v>
+        <v>0.178343949044586</v>
       </c>
       <c r="C42">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="D42">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2351,7 +2429,7 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>224</v>
+        <v>129</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2359,13 +2437,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.1728971962616822</v>
+        <v>0.1740506329113924</v>
       </c>
       <c r="C43">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="D43">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2377,7 +2455,7 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>177</v>
+        <v>261</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2385,13 +2463,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.1656050955414013</v>
+        <v>0.1708860759493671</v>
       </c>
       <c r="C44">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="D44">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2403,7 +2481,7 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>131</v>
+        <v>262</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2411,13 +2489,13 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.1642857142857143</v>
+        <v>0.1635514018691589</v>
       </c>
       <c r="C45">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="D45">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2429,7 +2507,7 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>117</v>
+        <v>179</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2437,13 +2515,13 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.1550632911392405</v>
+        <v>0.1519823788546255</v>
       </c>
       <c r="C46">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="D46">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2455,7 +2533,7 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>267</v>
+        <v>385</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2463,25 +2541,25 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.1541850220264317</v>
+        <v>0.1494252873563219</v>
       </c>
       <c r="C47">
-        <v>70</v>
+        <v>26</v>
       </c>
       <c r="D47">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="E47">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F47">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="G47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H47">
-        <v>384</v>
+        <v>148</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2489,13 +2567,13 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.1535580524344569</v>
+        <v>0.1311475409836066</v>
       </c>
       <c r="C48">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="D48">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -2507,7 +2585,7 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>226</v>
+        <v>159</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2515,25 +2593,25 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.1527377521613833</v>
+        <v>0.1278195488721804</v>
       </c>
       <c r="C49">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="D49">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="E49">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="F49">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="G49" t="b">
         <v>1</v>
       </c>
       <c r="H49">
-        <v>294</v>
+        <v>232</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2541,25 +2619,25 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.1428571428571428</v>
+        <v>0.1276595744680851</v>
       </c>
       <c r="C50">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D50">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E50">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F50">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="G50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H50">
-        <v>132</v>
+        <v>164</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2567,25 +2645,25 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.1379310344827586</v>
+        <v>0.1214574898785425</v>
       </c>
       <c r="C51">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D51">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E51">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="F51">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="G51" t="b">
         <v>1</v>
       </c>
       <c r="H51">
-        <v>150</v>
+        <v>217</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2593,13 +2671,13 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.1330645161290323</v>
+        <v>0.1042253521126761</v>
       </c>
       <c r="C52">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D52">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -2611,7 +2689,7 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>215</v>
+        <v>318</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2619,25 +2697,25 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1151832460732984</v>
+        <v>0.09151785714285714</v>
       </c>
       <c r="C53">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D53">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="E53">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F53">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H53">
-        <v>169</v>
+        <v>407</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2645,25 +2723,25 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.1101928374655647</v>
+        <v>0.09041095890410959</v>
       </c>
       <c r="C54">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D54">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="E54">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F54">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H54">
-        <v>323</v>
+        <v>332</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2671,25 +2749,25 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.09747292418772563</v>
+        <v>0.08243727598566308</v>
       </c>
       <c r="C55">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D55">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E55">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="F55">
-        <v>0.9</v>
+        <v>0.96</v>
       </c>
       <c r="G55" t="b">
         <v>1</v>
       </c>
       <c r="H55">
-        <v>250</v>
+        <v>256</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2697,25 +2775,25 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.08724832214765101</v>
+        <v>0.07450331125827815</v>
       </c>
       <c r="C56">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D56">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="E56">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="F56">
-        <v>0.95</v>
+        <v>0.92</v>
       </c>
       <c r="G56" t="b">
         <v>1</v>
       </c>
       <c r="H56">
-        <v>408</v>
+        <v>559</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2723,25 +2801,25 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.08580858085808581</v>
+        <v>0.06046511627906977</v>
       </c>
       <c r="C57">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="D57">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="E57">
-        <v>0.04</v>
+        <v>0.13</v>
       </c>
       <c r="F57">
-        <v>0.96</v>
+        <v>0.87</v>
       </c>
       <c r="G57" t="b">
         <v>1</v>
       </c>
       <c r="H57">
-        <v>554</v>
+        <v>404</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2749,25 +2827,25 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.07627118644067797</v>
+        <v>0.0581039755351682</v>
       </c>
       <c r="C58">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="D58">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="E58">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="F58">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="G58" t="b">
         <v>1</v>
       </c>
       <c r="H58">
-        <v>327</v>
+        <v>616</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2775,51 +2853,25 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.05979643765903308</v>
+        <v>0.05477707006369427</v>
       </c>
       <c r="C59">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D59">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E59">
-        <v>0.15</v>
+        <v>0.17</v>
       </c>
       <c r="F59">
-        <v>0.85</v>
+        <v>0.83</v>
       </c>
       <c r="G59" t="b">
         <v>1</v>
       </c>
       <c r="H59">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
-      <c r="A60" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B60">
-        <v>0.05053598774885146</v>
-      </c>
-      <c r="C60">
-        <v>33</v>
-      </c>
-      <c r="D60">
-        <v>35</v>
-      </c>
-      <c r="E60">
-        <v>0.06</v>
-      </c>
-      <c r="F60">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="G60" t="b">
-        <v>1</v>
-      </c>
-      <c r="H60">
-        <v>620</v>
+        <v>742</v>
       </c>
     </row>
   </sheetData>
